--- a/biology/Zoologie/Cephalaspidomorphi/Cephalaspidomorphi.xlsx
+++ b/biology/Zoologie/Cephalaspidomorphi/Cephalaspidomorphi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cephalaspidomorphi forment un clade fossile réunissant plusieurs taxons d'agnathes fossiles.
 Selon Paleobiology Database en 2024, ce taxon est un synonyme de la classe Petromyzontida.
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le clade des Cephalaspidomorphi est décrit en 1971 par les paléontologues Moy-Thomas et Mile[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le clade des Cephalaspidomorphi est décrit en 1971 par les paléontologues Moy-Thomas et Mile. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il faut pourtant noter que les phylogénies récentes ont exclu les Lamproies, précisément, de l'ensemble vraisemblablement formé par les taxons fossiles des Galeaspida, Pituriaspida et Osteostraci, plus proches parents des Gnathostomes que des lamproies. Le terme de "Cephalaspidomorphi" pour désigner les lamproies ne semble donc pas pertinent, puisqu'il dérive du nom d'un groupe d'Osteostraci.
 </t>
